--- a/Lab 1.3/RTM.xlsx
+++ b/Lab 1.3/RTM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\SE357-Pratice-class-main\Lab 1\Lab 1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SE357-Pratice-class-main\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -23,24 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Requirement ID</t>
   </si>
   <si>
     <t>Requirement title</t>
-  </si>
-  <si>
-    <t>Authentication</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Notification</t>
   </si>
   <si>
     <t>R</t>
@@ -49,43 +37,7 @@
     <t>U</t>
   </si>
   <si>
-    <t>Manage branch</t>
-  </si>
-  <si>
-    <t>Create branch</t>
-  </si>
-  <si>
-    <t>Update branch</t>
-  </si>
-  <si>
-    <t>Delete branch</t>
-  </si>
-  <si>
-    <t>Manage employee</t>
-  </si>
-  <si>
-    <t>Create employee</t>
-  </si>
-  <si>
-    <t>Update employee</t>
-  </si>
-  <si>
-    <t>Delete employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage supplier </t>
-  </si>
-  <si>
-    <t>Create supplier</t>
-  </si>
-  <si>
     <t>Update supplier</t>
-  </si>
-  <si>
-    <t>Delete supplier</t>
-  </si>
-  <si>
-    <t>Report and analytics</t>
   </si>
   <si>
     <t>Shiftwork change notification</t>
@@ -100,16 +52,43 @@
     <t>Low inventory quantity notification</t>
   </si>
   <si>
-    <t>Manage Land</t>
-  </si>
-  <si>
-    <t>View land</t>
-  </si>
-  <si>
     <t>Manage account (Employee account)</t>
   </si>
   <si>
     <t>Disable/Enable account</t>
+  </si>
+  <si>
+    <t>Manage land</t>
+  </si>
+  <si>
+    <t>Manage supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoice </t>
+  </si>
+  <si>
+    <t>Create land</t>
+  </si>
+  <si>
+    <t>Report and analytics(for employee)</t>
+  </si>
+  <si>
+    <t>Report and analytics(for stakeholders)</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Testing system</t>
+  </si>
+  <si>
+    <t>Web integration</t>
+  </si>
+  <si>
+    <t>Error handling</t>
   </si>
 </sst>
 </file>
@@ -414,7 +393,7 @@
   <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -435,45 +414,45 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1.1000000000000001</v>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1.2</v>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -481,63 +460,63 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>3.2</v>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3.3</v>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4</v>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>4.0999999999999996</v>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4.3</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -545,7 +524,7 @@
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5.0999999999999996</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -553,7 +532,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>5.2</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -561,7 +540,7 @@
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>5.3</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -569,15 +548,15 @@
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -585,51 +564,31 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -639,8 +598,8 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -4507,22 +4466,10 @@
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
     </row>
-    <row r="999" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-    </row>
-    <row r="1000" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-    </row>
+    <row r="999" spans="1:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="1000" spans="1:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="1001" spans="1:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="1002" spans="1:2" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4533,10 +4480,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF1001"/>
+  <dimension ref="A1:AF996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4553,77 +4500,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="7">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="7">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="7">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="I1" s="7">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="J1" s="7">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="K1" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7">
-        <v>4.0999999999999996</v>
+        <v>11</v>
       </c>
       <c r="M1" s="7">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="N1" s="7">
-        <v>4.3</v>
+        <v>13</v>
       </c>
       <c r="O1" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P1" s="7">
-        <v>5.0999999999999996</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="7">
-        <v>5.2</v>
+        <v>16</v>
       </c>
       <c r="R1" s="7">
-        <v>5.3</v>
+        <v>17</v>
       </c>
       <c r="S1" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T1" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="U1" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
-      <c r="V1" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="W1" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="X1" s="7">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="7">
-        <v>9.1</v>
-      </c>
-      <c r="Z1" s="7">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4669,7 +4606,7 @@
     </row>
     <row r="3" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4705,7 +4642,7 @@
     </row>
     <row r="4" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4741,7 +4678,7 @@
     </row>
     <row r="5" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4777,11 +4714,11 @@
     </row>
     <row r="6" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="4"/>
@@ -4812,25 +4749,23 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
       </c>
-      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -4838,9 +4773,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -4857,11 +4790,11 @@
     </row>
     <row r="8" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4"/>
       <c r="F8" s="4"/>
@@ -4879,7 +4812,9 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="U8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -4894,29 +4829,32 @@
     </row>
     <row r="9" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -4932,22 +4870,22 @@
     </row>
     <row r="10" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -4969,18 +4907,18 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5010,11 +4948,11 @@
     </row>
     <row r="12" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4.0999999999999996</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="4"/>
@@ -5032,13 +4970,13 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="U12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
@@ -5049,11 +4987,11 @@
     </row>
     <row r="13" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4"/>
       <c r="F13" s="4"/>
@@ -5062,19 +5000,17 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -5088,13 +5024,13 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4.3</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="4"/>
@@ -5103,14 +5039,14 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="5"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -5129,17 +5065,15 @@
     </row>
     <row r="15" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -5152,7 +5086,6 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -5168,11 +5101,11 @@
     </row>
     <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5.0999999999999996</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" s="4"/>
       <c r="F16" s="4"/>
@@ -5194,9 +5127,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
@@ -5207,11 +5138,11 @@
     </row>
     <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>5.2</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4"/>
@@ -5224,9 +5155,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -5244,13 +5173,13 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>5.3</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" s="4"/>
       <c r="F18" s="4"/>
@@ -5258,15 +5187,15 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -5285,11 +5214,11 @@
     </row>
     <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4"/>
@@ -5297,7 +5226,9 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -5306,7 +5237,10 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -5321,11 +5255,11 @@
     </row>
     <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4"/>
       <c r="F20" s="4"/>
@@ -5358,11 +5292,11 @@
     </row>
     <row r="21" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21" s="4"/>
@@ -5371,7 +5305,9 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -5394,22 +5330,17 @@
       <c r="AF21" s="4"/>
     </row>
     <row r="22" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>8.1</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -5432,36 +5363,29 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>8.1999999999999993</v>
-      </c>
+    <row r="23" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="5"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -5474,14 +5398,11 @@
       <c r="AF23" s="4"/>
     </row>
     <row r="24" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>9</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -5511,23 +5432,18 @@
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>9.1</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -5550,23 +5466,18 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -5579,9 +5490,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
@@ -5590,8 +5499,8 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -5624,8 +5533,7 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -5641,7 +5549,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -5659,7 +5567,6 @@
       <c r="AF28" s="4"/>
     </row>
     <row r="29" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -5693,8 +5600,8 @@
       <c r="AF29" s="4"/>
     </row>
     <row r="30" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -5727,8 +5634,8 @@
       <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -5760,9 +5667,9 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
+    <row r="32" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5795,7 +5702,8 @@
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5828,7 +5736,8 @@
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -6711,8 +6620,7 @@
       <c r="AF59" s="4"/>
     </row>
     <row r="60" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -6745,8 +6653,7 @@
       <c r="AF60" s="4"/>
     </row>
     <row r="61" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -6779,8 +6686,7 @@
       <c r="AF61" s="4"/>
     </row>
     <row r="62" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -6813,8 +6719,7 @@
       <c r="AF62" s="4"/>
     </row>
     <row r="63" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -6847,8 +6752,7 @@
       <c r="AF63" s="4"/>
     </row>
     <row r="64" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -37636,173 +37540,8 @@
       <c r="AE996" s="4"/>
       <c r="AF996" s="4"/>
     </row>
-    <row r="997" spans="2:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
-      <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
-      <c r="J997" s="4"/>
-      <c r="K997" s="4"/>
-      <c r="L997" s="4"/>
-      <c r="M997" s="4"/>
-      <c r="N997" s="4"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="4"/>
-      <c r="Q997" s="4"/>
-      <c r="R997" s="4"/>
-      <c r="S997" s="4"/>
-      <c r="T997" s="4"/>
-      <c r="U997" s="4"/>
-      <c r="V997" s="4"/>
-      <c r="W997" s="4"/>
-      <c r="X997" s="4"/>
-      <c r="Y997" s="4"/>
-      <c r="Z997" s="4"/>
-      <c r="AA997" s="4"/>
-      <c r="AB997" s="4"/>
-      <c r="AC997" s="4"/>
-      <c r="AD997" s="4"/>
-      <c r="AE997" s="4"/>
-      <c r="AF997" s="4"/>
-    </row>
-    <row r="998" spans="2:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="4"/>
-      <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
-      <c r="J998" s="4"/>
-      <c r="K998" s="4"/>
-      <c r="L998" s="4"/>
-      <c r="M998" s="4"/>
-      <c r="N998" s="4"/>
-      <c r="O998" s="4"/>
-      <c r="P998" s="4"/>
-      <c r="Q998" s="4"/>
-      <c r="R998" s="4"/>
-      <c r="S998" s="4"/>
-      <c r="T998" s="4"/>
-      <c r="U998" s="4"/>
-      <c r="V998" s="4"/>
-      <c r="W998" s="4"/>
-      <c r="X998" s="4"/>
-      <c r="Y998" s="4"/>
-      <c r="Z998" s="4"/>
-      <c r="AA998" s="4"/>
-      <c r="AB998" s="4"/>
-      <c r="AC998" s="4"/>
-      <c r="AD998" s="4"/>
-      <c r="AE998" s="4"/>
-      <c r="AF998" s="4"/>
-    </row>
-    <row r="999" spans="2:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-      <c r="G999" s="4"/>
-      <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
-      <c r="J999" s="4"/>
-      <c r="K999" s="4"/>
-      <c r="L999" s="4"/>
-      <c r="M999" s="4"/>
-      <c r="N999" s="4"/>
-      <c r="O999" s="4"/>
-      <c r="P999" s="4"/>
-      <c r="Q999" s="4"/>
-      <c r="R999" s="4"/>
-      <c r="S999" s="4"/>
-      <c r="T999" s="4"/>
-      <c r="U999" s="4"/>
-      <c r="V999" s="4"/>
-      <c r="W999" s="4"/>
-      <c r="X999" s="4"/>
-      <c r="Y999" s="4"/>
-      <c r="Z999" s="4"/>
-      <c r="AA999" s="4"/>
-      <c r="AB999" s="4"/>
-      <c r="AC999" s="4"/>
-      <c r="AD999" s="4"/>
-      <c r="AE999" s="4"/>
-      <c r="AF999" s="4"/>
-    </row>
-    <row r="1000" spans="2:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="4"/>
-      <c r="Q1000" s="4"/>
-      <c r="R1000" s="4"/>
-      <c r="S1000" s="4"/>
-      <c r="T1000" s="4"/>
-      <c r="U1000" s="4"/>
-      <c r="V1000" s="4"/>
-      <c r="W1000" s="4"/>
-      <c r="X1000" s="4"/>
-      <c r="Y1000" s="4"/>
-      <c r="Z1000" s="4"/>
-      <c r="AA1000" s="4"/>
-      <c r="AB1000" s="4"/>
-      <c r="AC1000" s="4"/>
-      <c r="AD1000" s="4"/>
-      <c r="AE1000" s="4"/>
-      <c r="AF1000" s="4"/>
-    </row>
-    <row r="1001" spans="2:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1001" s="4"/>
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="4"/>
-      <c r="G1001" s="4"/>
-      <c r="H1001" s="4"/>
-      <c r="I1001" s="4"/>
-      <c r="J1001" s="4"/>
-      <c r="K1001" s="4"/>
-      <c r="L1001" s="4"/>
-      <c r="M1001" s="4"/>
-      <c r="N1001" s="4"/>
-      <c r="O1001" s="4"/>
-      <c r="P1001" s="4"/>
-      <c r="Q1001" s="4"/>
-      <c r="R1001" s="4"/>
-      <c r="S1001" s="4"/>
-      <c r="T1001" s="4"/>
-      <c r="U1001" s="4"/>
-      <c r="V1001" s="4"/>
-      <c r="W1001" s="4"/>
-      <c r="X1001" s="4"/>
-      <c r="Y1001" s="4"/>
-      <c r="Z1001" s="4"/>
-      <c r="AA1001" s="4"/>
-      <c r="AB1001" s="4"/>
-      <c r="AC1001" s="4"/>
-      <c r="AD1001" s="4"/>
-      <c r="AE1001" s="4"/>
-      <c r="AF1001" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:D26 B1:AF5 B27:AF1001 F20:AF26 F19:S19 U19:AF19 F10:AF18 F9:R9 T9:AF9 F6:AF8">
+  <conditionalFormatting sqref="B1:AF5 B22:AF996 F16:AF21 F15:S15 U15:AF15 B6:D21 F6:AF14">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
